--- a/reports/Visitor_Log-31-08-2021.xlsx
+++ b/reports/Visitor_Log-31-08-2021.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1</definedName>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
@@ -559,114 +559,6 @@
       <c r="O2" s="6" t="inlineStr">
         <is>
           <t>Domestic Commercial</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>952-AE3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20:30:02</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ute</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>General Waste</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Domestic</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Dad001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20:30:10</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ute</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Steel Waste</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Domestic</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>666-SATAN</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20:30:17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Car</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Steel Waste</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Domestic</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20:30:24</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ute</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>General Waste</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Domestic</t>
         </is>
       </c>
     </row>
